--- a/Data/Pobreza_monetaria/Input/lineas_pobreza.xlsx
+++ b/Data/Pobreza_monetaria/Input/lineas_pobreza.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anapi\OneDrive - Universidad EAFIT\2021_BID_PulsoSocial\01_Analisis_empirico\01_Datos\Data\Pobreza_monetaria\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit-my.sharepoint.com/personal/jmunozm1_eafit_edu_co/Documents/Projects/2021_BID_PulsoSocial/01_Analisis_empirico/01_Datos/Data/Pobreza_monetaria/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7DF97B-1B5A-4907-AF9B-5578C760BED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9E7DF97B-1B5A-4907-AF9B-5578C760BED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3ECDE4A-7771-435F-A5CE-B7DEA9722EFB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{146F2D0C-8CEA-452C-B3C6-D74C5A329FD7}"/>
   </bookViews>
@@ -100,10 +100,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,13 +134,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -448,7 +459,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -496,7 +507,7 @@
       <c r="E2">
         <v>331688</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -921,6 +932,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{C7C11F23-29B1-4EB1-9FE0-0503E8195FC6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>